--- a/Keypoint Detector-Descriptor_Performance_results.xlsx
+++ b/Keypoint Detector-Descriptor_Performance_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\albert\SENSOR_FUSION\Project_Submissions\Camera_mid_term_project\SFND_2D_Feature_Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF382D39-42EE-4E60-A48D-C3FE1614FD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79042D27-8A85-485C-B3D3-B9FA2387CE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{0D314FFE-C5A8-4492-8E81-A6C3CB68E0AC}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>SHI THOMASI</t>
   </si>
   <si>
-    <t>Time [MP.9]</t>
-  </si>
-  <si>
     <t>Matched Keypoints [MP.8]</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>No. Of Keypoints                                                    (on Preceding Vehicle) [MP.7]</t>
+  </si>
+  <si>
+    <t>Time  taken for Keypoint Detection and Descriptor Extraction[MP.9]</t>
   </si>
 </sst>
 </file>
@@ -389,6 +389,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,12 +412,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B2B6AA-F5E4-4829-BF5A-3F800BFB8BDC}">
   <dimension ref="A1:I462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="G403" sqref="G403"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -759,7 +759,7 @@
     <col min="2" max="2" width="19.453125" customWidth="1"/>
     <col min="3" max="3" width="12.81640625" customWidth="1"/>
     <col min="4" max="4" width="32.08984375" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="45.1796875" customWidth="1"/>
     <col min="6" max="6" width="21.81640625" customWidth="1"/>
     <col min="7" max="7" width="19.6328125" customWidth="1"/>
     <col min="8" max="8" width="18.90625" customWidth="1"/>
@@ -770,27 +770,27 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="27" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2">
@@ -805,8 +805,8 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="26"/>
       <c r="C3">
         <v>2</v>
       </c>
@@ -821,8 +821,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="26"/>
       <c r="C4">
         <v>3</v>
       </c>
@@ -837,8 +837,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
-      <c r="B5" s="24"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="26"/>
       <c r="C5">
         <v>4</v>
       </c>
@@ -853,8 +853,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="26"/>
       <c r="C6">
         <v>5</v>
       </c>
@@ -869,8 +869,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="26"/>
       <c r="C7">
         <v>6</v>
       </c>
@@ -885,8 +885,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="26"/>
       <c r="C8">
         <v>7</v>
       </c>
@@ -901,8 +901,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
       <c r="C9">
         <v>8</v>
       </c>
@@ -917,8 +917,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
       <c r="C10">
         <v>9</v>
       </c>
@@ -932,18 +932,18 @@
         <v>86</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -970,8 +970,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="2">
@@ -988,8 +988,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="26"/>
       <c r="C13">
         <v>2</v>
       </c>
@@ -1004,8 +1004,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="26"/>
       <c r="C14">
         <v>3</v>
       </c>
@@ -1020,8 +1020,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="26"/>
       <c r="C15">
         <v>4</v>
       </c>
@@ -1036,8 +1036,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="26"/>
       <c r="C16">
         <v>5</v>
       </c>
@@ -1052,8 +1052,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="26"/>
       <c r="C17">
         <v>6</v>
       </c>
@@ -1068,8 +1068,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="26"/>
       <c r="C18">
         <v>7</v>
       </c>
@@ -1084,8 +1084,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="26"/>
       <c r="C19">
         <v>8</v>
       </c>
@@ -1100,8 +1100,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="26"/>
       <c r="C20">
         <v>9</v>
       </c>
@@ -1115,18 +1115,18 @@
         <v>109</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="5">
         <v>10</v>
       </c>
@@ -1153,8 +1153,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="2">
@@ -1169,8 +1169,8 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="21"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="26"/>
       <c r="C23">
         <v>2</v>
       </c>
@@ -1185,8 +1185,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
-      <c r="B24" s="24"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="26"/>
       <c r="C24">
         <v>3</v>
       </c>
@@ -1201,8 +1201,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="21"/>
-      <c r="B25" s="24"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="26"/>
       <c r="C25">
         <v>4</v>
       </c>
@@ -1217,8 +1217,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="21"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="26"/>
       <c r="C26">
         <v>5</v>
       </c>
@@ -1233,8 +1233,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="21"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="26"/>
       <c r="C27">
         <v>6</v>
       </c>
@@ -1249,8 +1249,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="26"/>
       <c r="C28">
         <v>7</v>
       </c>
@@ -1265,8 +1265,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="24"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="26"/>
       <c r="C29">
         <v>8</v>
       </c>
@@ -1281,8 +1281,8 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="26"/>
       <c r="C30">
         <v>9</v>
       </c>
@@ -1296,18 +1296,18 @@
         <v>102</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="21"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="5">
         <v>10</v>
       </c>
@@ -1334,170 +1334,170 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="21"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="26"/>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="21"/>
-      <c r="B34" s="24"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="26"/>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="21"/>
-      <c r="B35" s="24"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="26"/>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="21"/>
-      <c r="B36" s="24"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="26"/>
       <c r="C36">
         <v>5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="21"/>
-      <c r="B37" s="24"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="26"/>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="21"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="26"/>
       <c r="C38">
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="21"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="26"/>
       <c r="C39">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="21"/>
-      <c r="B40" s="24"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="26"/>
       <c r="C40">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="21"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="5">
         <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="21"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="2">
@@ -1512,8 +1512,8 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="26"/>
       <c r="C43">
         <v>2</v>
       </c>
@@ -1528,8 +1528,8 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="21"/>
-      <c r="B44" s="24"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="26"/>
       <c r="C44">
         <v>3</v>
       </c>
@@ -1544,8 +1544,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="21"/>
-      <c r="B45" s="24"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="26"/>
       <c r="C45">
         <v>4</v>
       </c>
@@ -1560,8 +1560,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="21"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="26"/>
       <c r="C46">
         <v>5</v>
       </c>
@@ -1576,8 +1576,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="21"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="26"/>
       <c r="C47">
         <v>6</v>
       </c>
@@ -1592,8 +1592,8 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="21"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="26"/>
       <c r="C48">
         <v>7</v>
       </c>
@@ -1608,8 +1608,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="21"/>
-      <c r="B49" s="24"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="26"/>
       <c r="C49">
         <v>8</v>
       </c>
@@ -1624,8 +1624,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A50" s="21"/>
-      <c r="B50" s="24"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="26"/>
       <c r="C50">
         <v>9</v>
       </c>
@@ -1639,18 +1639,18 @@
         <v>106</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="21"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="5">
         <v>10</v>
       </c>
@@ -1677,8 +1677,8 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="21"/>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="2">
@@ -1693,8 +1693,8 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="21"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="26"/>
       <c r="C53">
         <v>2</v>
       </c>
@@ -1709,8 +1709,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="21"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="26"/>
       <c r="C54">
         <v>3</v>
       </c>
@@ -1725,8 +1725,8 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="21"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="26"/>
       <c r="C55">
         <v>4</v>
       </c>
@@ -1741,8 +1741,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="21"/>
-      <c r="B56" s="24"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="26"/>
       <c r="C56">
         <v>5</v>
       </c>
@@ -1757,8 +1757,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="21"/>
-      <c r="B57" s="24"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="26"/>
       <c r="C57">
         <v>6</v>
       </c>
@@ -1773,8 +1773,8 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="21"/>
-      <c r="B58" s="24"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="26"/>
       <c r="C58">
         <v>7</v>
       </c>
@@ -1789,8 +1789,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="26"/>
       <c r="C59">
         <v>8</v>
       </c>
@@ -1805,8 +1805,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A60" s="21"/>
-      <c r="B60" s="24"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="26"/>
       <c r="C60">
         <v>9</v>
       </c>
@@ -1820,18 +1820,18 @@
         <v>62</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="22"/>
-      <c r="B61" s="25"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="5">
         <v>10</v>
       </c>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="65" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" s="23" t="s">
+      <c r="A65" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C65" s="12">
@@ -1877,8 +1877,8 @@
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="21"/>
-      <c r="B66" s="24"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="26"/>
       <c r="C66">
         <v>2</v>
       </c>
@@ -1893,8 +1893,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="21"/>
-      <c r="B67" s="24"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="26"/>
       <c r="C67">
         <v>3</v>
       </c>
@@ -1909,8 +1909,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="21"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="26"/>
       <c r="C68">
         <v>4</v>
       </c>
@@ -1925,8 +1925,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="21"/>
-      <c r="B69" s="24"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="26"/>
       <c r="C69">
         <v>5</v>
       </c>
@@ -1941,8 +1941,8 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="21"/>
-      <c r="B70" s="24"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="26"/>
       <c r="C70">
         <v>6</v>
       </c>
@@ -1957,8 +1957,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="21"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="26"/>
       <c r="C71">
         <v>7</v>
       </c>
@@ -1973,8 +1973,8 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="21"/>
-      <c r="B72" s="24"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="26"/>
       <c r="C72">
         <v>8</v>
       </c>
@@ -1989,8 +1989,8 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A73" s="21"/>
-      <c r="B73" s="24"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="26"/>
       <c r="C73">
         <v>9</v>
       </c>
@@ -2004,18 +2004,18 @@
         <v>23</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="21"/>
-      <c r="B74" s="25"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="27"/>
       <c r="C74">
         <v>10</v>
       </c>
@@ -2042,8 +2042,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="21"/>
-      <c r="B75" s="23" t="s">
+      <c r="A75" s="23"/>
+      <c r="B75" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="12">
@@ -2058,8 +2058,8 @@
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="21"/>
-      <c r="B76" s="24"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="26"/>
       <c r="C76">
         <v>2</v>
       </c>
@@ -2074,8 +2074,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="21"/>
-      <c r="B77" s="24"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="26"/>
       <c r="C77">
         <v>3</v>
       </c>
@@ -2090,8 +2090,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="21"/>
-      <c r="B78" s="24"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="26"/>
       <c r="C78">
         <v>4</v>
       </c>
@@ -2106,8 +2106,8 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="21"/>
-      <c r="B79" s="24"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="26"/>
       <c r="C79">
         <v>5</v>
       </c>
@@ -2122,8 +2122,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="21"/>
-      <c r="B80" s="24"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="26"/>
       <c r="C80">
         <v>6</v>
       </c>
@@ -2138,8 +2138,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="21"/>
-      <c r="B81" s="24"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="26"/>
       <c r="C81">
         <v>7</v>
       </c>
@@ -2154,8 +2154,8 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="21"/>
-      <c r="B82" s="24"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="26"/>
       <c r="C82">
         <v>8</v>
       </c>
@@ -2170,8 +2170,8 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A83" s="21"/>
-      <c r="B83" s="24"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="26"/>
       <c r="C83">
         <v>9</v>
       </c>
@@ -2185,18 +2185,18 @@
         <v>24</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="21"/>
-      <c r="B84" s="25"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="27"/>
       <c r="C84">
         <v>10</v>
       </c>
@@ -2223,8 +2223,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="21"/>
-      <c r="B85" s="23" t="s">
+      <c r="A85" s="23"/>
+      <c r="B85" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C85" s="12">
@@ -2239,8 +2239,8 @@
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="21"/>
-      <c r="B86" s="24"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="26"/>
       <c r="C86">
         <v>2</v>
       </c>
@@ -2255,8 +2255,8 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="21"/>
-      <c r="B87" s="24"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="26"/>
       <c r="C87">
         <v>3</v>
       </c>
@@ -2271,8 +2271,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="21"/>
-      <c r="B88" s="24"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="26"/>
       <c r="C88">
         <v>4</v>
       </c>
@@ -2287,8 +2287,8 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="21"/>
-      <c r="B89" s="24"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="26"/>
       <c r="C89">
         <v>5</v>
       </c>
@@ -2303,8 +2303,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="21"/>
-      <c r="B90" s="24"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="26"/>
       <c r="C90">
         <v>6</v>
       </c>
@@ -2319,8 +2319,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="21"/>
-      <c r="B91" s="24"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="26"/>
       <c r="C91">
         <v>7</v>
       </c>
@@ -2335,8 +2335,8 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="21"/>
-      <c r="B92" s="24"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="26"/>
       <c r="C92">
         <v>8</v>
       </c>
@@ -2351,8 +2351,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A93" s="21"/>
-      <c r="B93" s="24"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="26"/>
       <c r="C93">
         <v>9</v>
       </c>
@@ -2366,18 +2366,18 @@
         <v>24</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="21"/>
-      <c r="B94" s="25"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="27"/>
       <c r="C94">
         <v>10</v>
       </c>
@@ -2404,170 +2404,170 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="21"/>
-      <c r="B95" s="23" t="s">
+      <c r="A95" s="23"/>
+      <c r="B95" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="2">
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="21"/>
-      <c r="B96" s="24"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="26"/>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="21"/>
-      <c r="B97" s="24"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="26"/>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="21"/>
-      <c r="B98" s="24"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="26"/>
       <c r="C98">
         <v>4</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="21"/>
-      <c r="B99" s="24"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="26"/>
       <c r="C99">
         <v>5</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="21"/>
-      <c r="B100" s="24"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="26"/>
       <c r="C100">
         <v>6</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="21"/>
-      <c r="B101" s="24"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="26"/>
       <c r="C101">
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="21"/>
-      <c r="B102" s="24"/>
+      <c r="A102" s="23"/>
+      <c r="B102" s="26"/>
       <c r="C102">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="21"/>
-      <c r="B103" s="24"/>
+      <c r="A103" s="23"/>
+      <c r="B103" s="26"/>
       <c r="C103">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="21"/>
-      <c r="B104" s="25"/>
+      <c r="A104" s="23"/>
+      <c r="B104" s="27"/>
       <c r="C104" s="5">
         <v>10</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="21"/>
-      <c r="B105" s="23" t="s">
+      <c r="A105" s="23"/>
+      <c r="B105" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="12">
@@ -2582,8 +2582,8 @@
       <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="21"/>
-      <c r="B106" s="24"/>
+      <c r="A106" s="23"/>
+      <c r="B106" s="26"/>
       <c r="C106">
         <v>2</v>
       </c>
@@ -2598,8 +2598,8 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="21"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="23"/>
+      <c r="B107" s="26"/>
       <c r="C107">
         <v>3</v>
       </c>
@@ -2614,8 +2614,8 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="21"/>
-      <c r="B108" s="24"/>
+      <c r="A108" s="23"/>
+      <c r="B108" s="26"/>
       <c r="C108">
         <v>4</v>
       </c>
@@ -2630,8 +2630,8 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="21"/>
-      <c r="B109" s="24"/>
+      <c r="A109" s="23"/>
+      <c r="B109" s="26"/>
       <c r="C109">
         <v>5</v>
       </c>
@@ -2646,8 +2646,8 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="21"/>
-      <c r="B110" s="24"/>
+      <c r="A110" s="23"/>
+      <c r="B110" s="26"/>
       <c r="C110">
         <v>6</v>
       </c>
@@ -2662,8 +2662,8 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="21"/>
-      <c r="B111" s="24"/>
+      <c r="A111" s="23"/>
+      <c r="B111" s="26"/>
       <c r="C111">
         <v>7</v>
       </c>
@@ -2678,8 +2678,8 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="21"/>
-      <c r="B112" s="24"/>
+      <c r="A112" s="23"/>
+      <c r="B112" s="26"/>
       <c r="C112">
         <v>8</v>
       </c>
@@ -2694,8 +2694,8 @@
       </c>
     </row>
     <row r="113" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A113" s="21"/>
-      <c r="B113" s="24"/>
+      <c r="A113" s="23"/>
+      <c r="B113" s="26"/>
       <c r="C113">
         <v>9</v>
       </c>
@@ -2709,18 +2709,18 @@
         <v>24</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="21"/>
-      <c r="B114" s="25"/>
+      <c r="A114" s="23"/>
+      <c r="B114" s="27"/>
       <c r="C114">
         <v>10</v>
       </c>
@@ -2747,8 +2747,8 @@
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="21"/>
-      <c r="B115" s="23" t="s">
+      <c r="A115" s="23"/>
+      <c r="B115" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="12">
@@ -2763,8 +2763,8 @@
       <c r="F115" s="3"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A116" s="21"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="23"/>
+      <c r="B116" s="26"/>
       <c r="C116">
         <v>2</v>
       </c>
@@ -2779,8 +2779,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" s="21"/>
-      <c r="B117" s="24"/>
+      <c r="A117" s="23"/>
+      <c r="B117" s="26"/>
       <c r="C117">
         <v>3</v>
       </c>
@@ -2795,8 +2795,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A118" s="21"/>
-      <c r="B118" s="24"/>
+      <c r="A118" s="23"/>
+      <c r="B118" s="26"/>
       <c r="C118">
         <v>4</v>
       </c>
@@ -2811,8 +2811,8 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A119" s="21"/>
-      <c r="B119" s="24"/>
+      <c r="A119" s="23"/>
+      <c r="B119" s="26"/>
       <c r="C119">
         <v>5</v>
       </c>
@@ -2827,8 +2827,8 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A120" s="21"/>
-      <c r="B120" s="24"/>
+      <c r="A120" s="23"/>
+      <c r="B120" s="26"/>
       <c r="C120">
         <v>6</v>
       </c>
@@ -2843,8 +2843,8 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A121" s="21"/>
-      <c r="B121" s="24"/>
+      <c r="A121" s="23"/>
+      <c r="B121" s="26"/>
       <c r="C121">
         <v>7</v>
       </c>
@@ -2859,8 +2859,8 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A122" s="21"/>
-      <c r="B122" s="24"/>
+      <c r="A122" s="23"/>
+      <c r="B122" s="26"/>
       <c r="C122">
         <v>8</v>
       </c>
@@ -2875,8 +2875,8 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A123" s="21"/>
-      <c r="B123" s="24"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="26"/>
       <c r="C123">
         <v>9</v>
       </c>
@@ -2890,18 +2890,18 @@
         <v>16</v>
       </c>
       <c r="G123" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="22"/>
-      <c r="B124" s="25"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="27"/>
       <c r="C124" s="13">
         <v>10</v>
       </c>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="132" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="133" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B133" s="23" t="s">
+      <c r="A133" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C133" s="12">
@@ -2947,8 +2947,8 @@
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A134" s="21"/>
-      <c r="B134" s="24"/>
+      <c r="A134" s="23"/>
+      <c r="B134" s="26"/>
       <c r="C134">
         <v>2</v>
       </c>
@@ -2963,8 +2963,8 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A135" s="21"/>
-      <c r="B135" s="24"/>
+      <c r="A135" s="23"/>
+      <c r="B135" s="26"/>
       <c r="C135">
         <v>3</v>
       </c>
@@ -2979,8 +2979,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A136" s="21"/>
-      <c r="B136" s="24"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="26"/>
       <c r="C136">
         <v>4</v>
       </c>
@@ -2995,8 +2995,8 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A137" s="21"/>
-      <c r="B137" s="24"/>
+      <c r="A137" s="23"/>
+      <c r="B137" s="26"/>
       <c r="C137">
         <v>5</v>
       </c>
@@ -3011,8 +3011,8 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" s="21"/>
-      <c r="B138" s="24"/>
+      <c r="A138" s="23"/>
+      <c r="B138" s="26"/>
       <c r="C138">
         <v>6</v>
       </c>
@@ -3027,8 +3027,8 @@
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A139" s="21"/>
-      <c r="B139" s="24"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="26"/>
       <c r="C139">
         <v>7</v>
       </c>
@@ -3043,8 +3043,8 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A140" s="21"/>
-      <c r="B140" s="24"/>
+      <c r="A140" s="23"/>
+      <c r="B140" s="26"/>
       <c r="C140">
         <v>8</v>
       </c>
@@ -3059,8 +3059,8 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A141" s="21"/>
-      <c r="B141" s="24"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="26"/>
       <c r="C141">
         <v>9</v>
       </c>
@@ -3074,18 +3074,18 @@
         <v>90</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="21"/>
-      <c r="B142" s="25"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="27"/>
       <c r="C142">
         <v>10</v>
       </c>
@@ -3112,8 +3112,8 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="21"/>
-      <c r="B143" s="23" t="s">
+      <c r="A143" s="23"/>
+      <c r="B143" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="12">
@@ -3128,8 +3128,8 @@
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A144" s="21"/>
-      <c r="B144" s="24"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="26"/>
       <c r="C144">
         <v>2</v>
       </c>
@@ -3144,8 +3144,8 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A145" s="21"/>
-      <c r="B145" s="24"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="26"/>
       <c r="C145">
         <v>3</v>
       </c>
@@ -3160,8 +3160,8 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A146" s="21"/>
-      <c r="B146" s="24"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="26"/>
       <c r="C146">
         <v>4</v>
       </c>
@@ -3176,8 +3176,8 @@
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A147" s="21"/>
-      <c r="B147" s="24"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="26"/>
       <c r="C147">
         <v>5</v>
       </c>
@@ -3192,8 +3192,8 @@
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A148" s="21"/>
-      <c r="B148" s="24"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="26"/>
       <c r="C148">
         <v>6</v>
       </c>
@@ -3208,8 +3208,8 @@
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A149" s="21"/>
-      <c r="B149" s="24"/>
+      <c r="A149" s="23"/>
+      <c r="B149" s="26"/>
       <c r="C149">
         <v>7</v>
       </c>
@@ -3224,8 +3224,8 @@
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A150" s="21"/>
-      <c r="B150" s="24"/>
+      <c r="A150" s="23"/>
+      <c r="B150" s="26"/>
       <c r="C150">
         <v>8</v>
       </c>
@@ -3240,8 +3240,8 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A151" s="21"/>
-      <c r="B151" s="24"/>
+      <c r="A151" s="23"/>
+      <c r="B151" s="26"/>
       <c r="C151">
         <v>9</v>
       </c>
@@ -3255,18 +3255,18 @@
         <v>107</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="21"/>
-      <c r="B152" s="25"/>
+      <c r="A152" s="23"/>
+      <c r="B152" s="27"/>
       <c r="C152">
         <v>10</v>
       </c>
@@ -3293,8 +3293,8 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="21"/>
-      <c r="B153" s="23" t="s">
+      <c r="A153" s="23"/>
+      <c r="B153" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C153" s="12">
@@ -3309,8 +3309,8 @@
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A154" s="21"/>
-      <c r="B154" s="24"/>
+      <c r="A154" s="23"/>
+      <c r="B154" s="26"/>
       <c r="C154">
         <v>2</v>
       </c>
@@ -3325,8 +3325,8 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A155" s="21"/>
-      <c r="B155" s="24"/>
+      <c r="A155" s="23"/>
+      <c r="B155" s="26"/>
       <c r="C155">
         <v>3</v>
       </c>
@@ -3341,8 +3341,8 @@
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A156" s="21"/>
-      <c r="B156" s="24"/>
+      <c r="A156" s="23"/>
+      <c r="B156" s="26"/>
       <c r="C156">
         <v>4</v>
       </c>
@@ -3357,8 +3357,8 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A157" s="21"/>
-      <c r="B157" s="24"/>
+      <c r="A157" s="23"/>
+      <c r="B157" s="26"/>
       <c r="C157">
         <v>5</v>
       </c>
@@ -3373,8 +3373,8 @@
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A158" s="21"/>
-      <c r="B158" s="24"/>
+      <c r="A158" s="23"/>
+      <c r="B158" s="26"/>
       <c r="C158">
         <v>6</v>
       </c>
@@ -3389,8 +3389,8 @@
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A159" s="21"/>
-      <c r="B159" s="24"/>
+      <c r="A159" s="23"/>
+      <c r="B159" s="26"/>
       <c r="C159">
         <v>7</v>
       </c>
@@ -3405,8 +3405,8 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A160" s="21"/>
-      <c r="B160" s="24"/>
+      <c r="A160" s="23"/>
+      <c r="B160" s="26"/>
       <c r="C160">
         <v>8</v>
       </c>
@@ -3421,8 +3421,8 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A161" s="21"/>
-      <c r="B161" s="24"/>
+      <c r="A161" s="23"/>
+      <c r="B161" s="26"/>
       <c r="C161">
         <v>9</v>
       </c>
@@ -3436,18 +3436,18 @@
         <v>96</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H161" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="21"/>
-      <c r="B162" s="25"/>
+      <c r="A162" s="23"/>
+      <c r="B162" s="27"/>
       <c r="C162">
         <v>10</v>
       </c>
@@ -3474,170 +3474,170 @@
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="21"/>
-      <c r="B163" s="23" t="s">
+      <c r="A163" s="23"/>
+      <c r="B163" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C163" s="2">
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="21"/>
-      <c r="B164" s="24"/>
+      <c r="A164" s="23"/>
+      <c r="B164" s="26"/>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="21"/>
-      <c r="B165" s="24"/>
+      <c r="A165" s="23"/>
+      <c r="B165" s="26"/>
       <c r="C165">
         <v>3</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="21"/>
-      <c r="B166" s="24"/>
+      <c r="A166" s="23"/>
+      <c r="B166" s="26"/>
       <c r="C166">
         <v>4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="21"/>
-      <c r="B167" s="24"/>
+      <c r="A167" s="23"/>
+      <c r="B167" s="26"/>
       <c r="C167">
         <v>5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="21"/>
-      <c r="B168" s="24"/>
+      <c r="A168" s="23"/>
+      <c r="B168" s="26"/>
       <c r="C168">
         <v>6</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="21"/>
-      <c r="B169" s="24"/>
+      <c r="A169" s="23"/>
+      <c r="B169" s="26"/>
       <c r="C169">
         <v>7</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="21"/>
-      <c r="B170" s="24"/>
+      <c r="A170" s="23"/>
+      <c r="B170" s="26"/>
       <c r="C170">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="21"/>
-      <c r="B171" s="24"/>
+      <c r="A171" s="23"/>
+      <c r="B171" s="26"/>
       <c r="C171">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="21"/>
-      <c r="B172" s="25"/>
+      <c r="A172" s="23"/>
+      <c r="B172" s="27"/>
       <c r="C172" s="5">
         <v>10</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="21"/>
-      <c r="B173" s="23" t="s">
+      <c r="A173" s="23"/>
+      <c r="B173" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="12">
@@ -3652,8 +3652,8 @@
       <c r="F173" s="3"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A174" s="21"/>
-      <c r="B174" s="24"/>
+      <c r="A174" s="23"/>
+      <c r="B174" s="26"/>
       <c r="C174">
         <v>2</v>
       </c>
@@ -3668,8 +3668,8 @@
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A175" s="21"/>
-      <c r="B175" s="24"/>
+      <c r="A175" s="23"/>
+      <c r="B175" s="26"/>
       <c r="C175">
         <v>3</v>
       </c>
@@ -3684,8 +3684,8 @@
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A176" s="21"/>
-      <c r="B176" s="24"/>
+      <c r="A176" s="23"/>
+      <c r="B176" s="26"/>
       <c r="C176">
         <v>4</v>
       </c>
@@ -3700,8 +3700,8 @@
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A177" s="21"/>
-      <c r="B177" s="24"/>
+      <c r="A177" s="23"/>
+      <c r="B177" s="26"/>
       <c r="C177">
         <v>5</v>
       </c>
@@ -3716,8 +3716,8 @@
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A178" s="21"/>
-      <c r="B178" s="24"/>
+      <c r="A178" s="23"/>
+      <c r="B178" s="26"/>
       <c r="C178">
         <v>6</v>
       </c>
@@ -3732,8 +3732,8 @@
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A179" s="21"/>
-      <c r="B179" s="24"/>
+      <c r="A179" s="23"/>
+      <c r="B179" s="26"/>
       <c r="C179">
         <v>7</v>
       </c>
@@ -3748,8 +3748,8 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A180" s="21"/>
-      <c r="B180" s="24"/>
+      <c r="A180" s="23"/>
+      <c r="B180" s="26"/>
       <c r="C180">
         <v>8</v>
       </c>
@@ -3764,8 +3764,8 @@
       </c>
     </row>
     <row r="181" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A181" s="21"/>
-      <c r="B181" s="24"/>
+      <c r="A181" s="23"/>
+      <c r="B181" s="26"/>
       <c r="C181">
         <v>9</v>
       </c>
@@ -3779,18 +3779,18 @@
         <v>117</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H181" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="21"/>
-      <c r="B182" s="25"/>
+      <c r="A182" s="23"/>
+      <c r="B182" s="27"/>
       <c r="C182">
         <v>10</v>
       </c>
@@ -3817,8 +3817,8 @@
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="21"/>
-      <c r="B183" s="23" t="s">
+      <c r="A183" s="23"/>
+      <c r="B183" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C183" s="12">
@@ -3833,8 +3833,8 @@
       <c r="F183" s="3"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A184" s="21"/>
-      <c r="B184" s="24"/>
+      <c r="A184" s="23"/>
+      <c r="B184" s="26"/>
       <c r="C184">
         <v>2</v>
       </c>
@@ -3849,8 +3849,8 @@
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A185" s="21"/>
-      <c r="B185" s="24"/>
+      <c r="A185" s="23"/>
+      <c r="B185" s="26"/>
       <c r="C185">
         <v>3</v>
       </c>
@@ -3865,8 +3865,8 @@
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A186" s="21"/>
-      <c r="B186" s="24"/>
+      <c r="A186" s="23"/>
+      <c r="B186" s="26"/>
       <c r="C186">
         <v>4</v>
       </c>
@@ -3881,8 +3881,8 @@
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A187" s="21"/>
-      <c r="B187" s="24"/>
+      <c r="A187" s="23"/>
+      <c r="B187" s="26"/>
       <c r="C187">
         <v>5</v>
       </c>
@@ -3897,8 +3897,8 @@
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A188" s="21"/>
-      <c r="B188" s="24"/>
+      <c r="A188" s="23"/>
+      <c r="B188" s="26"/>
       <c r="C188">
         <v>6</v>
       </c>
@@ -3913,8 +3913,8 @@
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A189" s="21"/>
-      <c r="B189" s="24"/>
+      <c r="A189" s="23"/>
+      <c r="B189" s="26"/>
       <c r="C189">
         <v>7</v>
       </c>
@@ -3929,8 +3929,8 @@
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A190" s="21"/>
-      <c r="B190" s="24"/>
+      <c r="A190" s="23"/>
+      <c r="B190" s="26"/>
       <c r="C190">
         <v>8</v>
       </c>
@@ -3945,8 +3945,8 @@
       </c>
     </row>
     <row r="191" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A191" s="21"/>
-      <c r="B191" s="24"/>
+      <c r="A191" s="23"/>
+      <c r="B191" s="26"/>
       <c r="C191">
         <v>9</v>
       </c>
@@ -3960,18 +3960,18 @@
         <v>80</v>
       </c>
       <c r="G191" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H191" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I191" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="22"/>
-      <c r="B192" s="25"/>
+      <c r="A192" s="24"/>
+      <c r="B192" s="27"/>
       <c r="C192" s="13">
         <v>10</v>
       </c>
@@ -3999,10 +3999,10 @@
     </row>
     <row r="200" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="201" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="20" t="s">
+      <c r="A201" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B201" s="23" t="s">
+      <c r="B201" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C201" s="12">
@@ -4017,8 +4017,8 @@
       <c r="F201" s="3"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A202" s="21"/>
-      <c r="B202" s="24"/>
+      <c r="A202" s="23"/>
+      <c r="B202" s="26"/>
       <c r="C202">
         <v>2</v>
       </c>
@@ -4033,8 +4033,8 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="21"/>
-      <c r="B203" s="24"/>
+      <c r="A203" s="23"/>
+      <c r="B203" s="26"/>
       <c r="C203">
         <v>3</v>
       </c>
@@ -4049,8 +4049,8 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="21"/>
-      <c r="B204" s="24"/>
+      <c r="A204" s="23"/>
+      <c r="B204" s="26"/>
       <c r="C204">
         <v>4</v>
       </c>
@@ -4065,8 +4065,8 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" s="21"/>
-      <c r="B205" s="24"/>
+      <c r="A205" s="23"/>
+      <c r="B205" s="26"/>
       <c r="C205">
         <v>5</v>
       </c>
@@ -4081,8 +4081,8 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="21"/>
-      <c r="B206" s="24"/>
+      <c r="A206" s="23"/>
+      <c r="B206" s="26"/>
       <c r="C206">
         <v>6</v>
       </c>
@@ -4097,8 +4097,8 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="21"/>
-      <c r="B207" s="24"/>
+      <c r="A207" s="23"/>
+      <c r="B207" s="26"/>
       <c r="C207">
         <v>7</v>
       </c>
@@ -4113,8 +4113,8 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="21"/>
-      <c r="B208" s="24"/>
+      <c r="A208" s="23"/>
+      <c r="B208" s="26"/>
       <c r="C208">
         <v>8</v>
       </c>
@@ -4129,8 +4129,8 @@
       </c>
     </row>
     <row r="209" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A209" s="21"/>
-      <c r="B209" s="24"/>
+      <c r="A209" s="23"/>
+      <c r="B209" s="26"/>
       <c r="C209">
         <v>9</v>
       </c>
@@ -4144,18 +4144,18 @@
         <v>168</v>
       </c>
       <c r="G209" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H209" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I209" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="21"/>
-      <c r="B210" s="25"/>
+      <c r="A210" s="23"/>
+      <c r="B210" s="27"/>
       <c r="C210">
         <v>10</v>
       </c>
@@ -4182,8 +4182,8 @@
       </c>
     </row>
     <row r="211" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="21"/>
-      <c r="B211" s="23" t="s">
+      <c r="A211" s="23"/>
+      <c r="B211" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C211" s="12">
@@ -4198,8 +4198,8 @@
       <c r="F211" s="3"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A212" s="21"/>
-      <c r="B212" s="24"/>
+      <c r="A212" s="23"/>
+      <c r="B212" s="26"/>
       <c r="C212">
         <v>2</v>
       </c>
@@ -4214,8 +4214,8 @@
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A213" s="21"/>
-      <c r="B213" s="24"/>
+      <c r="A213" s="23"/>
+      <c r="B213" s="26"/>
       <c r="C213">
         <v>3</v>
       </c>
@@ -4230,8 +4230,8 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A214" s="21"/>
-      <c r="B214" s="24"/>
+      <c r="A214" s="23"/>
+      <c r="B214" s="26"/>
       <c r="C214">
         <v>4</v>
       </c>
@@ -4246,8 +4246,8 @@
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A215" s="21"/>
-      <c r="B215" s="24"/>
+      <c r="A215" s="23"/>
+      <c r="B215" s="26"/>
       <c r="C215">
         <v>5</v>
       </c>
@@ -4262,8 +4262,8 @@
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A216" s="21"/>
-      <c r="B216" s="24"/>
+      <c r="A216" s="23"/>
+      <c r="B216" s="26"/>
       <c r="C216">
         <v>6</v>
       </c>
@@ -4278,8 +4278,8 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A217" s="21"/>
-      <c r="B217" s="24"/>
+      <c r="A217" s="23"/>
+      <c r="B217" s="26"/>
       <c r="C217">
         <v>7</v>
       </c>
@@ -4294,8 +4294,8 @@
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A218" s="21"/>
-      <c r="B218" s="24"/>
+      <c r="A218" s="23"/>
+      <c r="B218" s="26"/>
       <c r="C218">
         <v>8</v>
       </c>
@@ -4310,8 +4310,8 @@
       </c>
     </row>
     <row r="219" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A219" s="21"/>
-      <c r="B219" s="24"/>
+      <c r="A219" s="23"/>
+      <c r="B219" s="26"/>
       <c r="C219">
         <v>9</v>
       </c>
@@ -4325,18 +4325,18 @@
         <v>185</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H219" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I219" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="21"/>
-      <c r="B220" s="25"/>
+      <c r="A220" s="23"/>
+      <c r="B220" s="27"/>
       <c r="C220">
         <v>10</v>
       </c>
@@ -4363,8 +4363,8 @@
       </c>
     </row>
     <row r="221" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="21"/>
-      <c r="B221" s="23" t="s">
+      <c r="A221" s="23"/>
+      <c r="B221" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C221" s="12">
@@ -4379,8 +4379,8 @@
       <c r="F221" s="3"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A222" s="21"/>
-      <c r="B222" s="24"/>
+      <c r="A222" s="23"/>
+      <c r="B222" s="26"/>
       <c r="C222">
         <v>2</v>
       </c>
@@ -4395,8 +4395,8 @@
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A223" s="21"/>
-      <c r="B223" s="24"/>
+      <c r="A223" s="23"/>
+      <c r="B223" s="26"/>
       <c r="C223">
         <v>3</v>
       </c>
@@ -4411,8 +4411,8 @@
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A224" s="21"/>
-      <c r="B224" s="24"/>
+      <c r="A224" s="23"/>
+      <c r="B224" s="26"/>
       <c r="C224">
         <v>4</v>
       </c>
@@ -4427,8 +4427,8 @@
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A225" s="21"/>
-      <c r="B225" s="24"/>
+      <c r="A225" s="23"/>
+      <c r="B225" s="26"/>
       <c r="C225">
         <v>5</v>
       </c>
@@ -4443,8 +4443,8 @@
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A226" s="21"/>
-      <c r="B226" s="24"/>
+      <c r="A226" s="23"/>
+      <c r="B226" s="26"/>
       <c r="C226">
         <v>6</v>
       </c>
@@ -4459,8 +4459,8 @@
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A227" s="21"/>
-      <c r="B227" s="24"/>
+      <c r="A227" s="23"/>
+      <c r="B227" s="26"/>
       <c r="C227">
         <v>7</v>
       </c>
@@ -4475,8 +4475,8 @@
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A228" s="21"/>
-      <c r="B228" s="24"/>
+      <c r="A228" s="23"/>
+      <c r="B228" s="26"/>
       <c r="C228">
         <v>8</v>
       </c>
@@ -4491,8 +4491,8 @@
       </c>
     </row>
     <row r="229" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A229" s="21"/>
-      <c r="B229" s="24"/>
+      <c r="A229" s="23"/>
+      <c r="B229" s="26"/>
       <c r="C229">
         <v>9</v>
       </c>
@@ -4506,18 +4506,18 @@
         <v>172</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H229" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I229" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="21"/>
-      <c r="B230" s="25"/>
+      <c r="A230" s="23"/>
+      <c r="B230" s="27"/>
       <c r="C230">
         <v>10</v>
       </c>
@@ -4544,170 +4544,170 @@
       </c>
     </row>
     <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A231" s="21"/>
-      <c r="B231" s="23" t="s">
+      <c r="A231" s="23"/>
+      <c r="B231" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C231" s="2">
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A232" s="21"/>
-      <c r="B232" s="24"/>
+      <c r="A232" s="23"/>
+      <c r="B232" s="26"/>
       <c r="C232">
         <v>2</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="21"/>
-      <c r="B233" s="24"/>
+      <c r="A233" s="23"/>
+      <c r="B233" s="26"/>
       <c r="C233">
         <v>3</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="21"/>
-      <c r="B234" s="24"/>
+      <c r="A234" s="23"/>
+      <c r="B234" s="26"/>
       <c r="C234">
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="21"/>
-      <c r="B235" s="24"/>
+      <c r="A235" s="23"/>
+      <c r="B235" s="26"/>
       <c r="C235">
         <v>5</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F235" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="21"/>
-      <c r="B236" s="24"/>
+      <c r="A236" s="23"/>
+      <c r="B236" s="26"/>
       <c r="C236">
         <v>6</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="21"/>
-      <c r="B237" s="24"/>
+      <c r="A237" s="23"/>
+      <c r="B237" s="26"/>
       <c r="C237">
         <v>7</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="21"/>
-      <c r="B238" s="24"/>
+      <c r="A238" s="23"/>
+      <c r="B238" s="26"/>
       <c r="C238">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="21"/>
-      <c r="B239" s="24"/>
+      <c r="A239" s="23"/>
+      <c r="B239" s="26"/>
       <c r="C239">
         <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="21"/>
-      <c r="B240" s="25"/>
+      <c r="A240" s="23"/>
+      <c r="B240" s="27"/>
       <c r="C240" s="5">
         <v>10</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F240" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="21"/>
-      <c r="B241" s="23" t="s">
+      <c r="A241" s="23"/>
+      <c r="B241" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C241" s="12">
@@ -4722,8 +4722,8 @@
       <c r="F241" s="3"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A242" s="21"/>
-      <c r="B242" s="24"/>
+      <c r="A242" s="23"/>
+      <c r="B242" s="26"/>
       <c r="C242">
         <v>2</v>
       </c>
@@ -4738,8 +4738,8 @@
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A243" s="21"/>
-      <c r="B243" s="24"/>
+      <c r="A243" s="23"/>
+      <c r="B243" s="26"/>
       <c r="C243">
         <v>3</v>
       </c>
@@ -4754,8 +4754,8 @@
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A244" s="21"/>
-      <c r="B244" s="24"/>
+      <c r="A244" s="23"/>
+      <c r="B244" s="26"/>
       <c r="C244">
         <v>4</v>
       </c>
@@ -4770,8 +4770,8 @@
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A245" s="21"/>
-      <c r="B245" s="24"/>
+      <c r="A245" s="23"/>
+      <c r="B245" s="26"/>
       <c r="C245">
         <v>5</v>
       </c>
@@ -4786,8 +4786,8 @@
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A246" s="21"/>
-      <c r="B246" s="24"/>
+      <c r="A246" s="23"/>
+      <c r="B246" s="26"/>
       <c r="C246">
         <v>6</v>
       </c>
@@ -4802,8 +4802,8 @@
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A247" s="21"/>
-      <c r="B247" s="24"/>
+      <c r="A247" s="23"/>
+      <c r="B247" s="26"/>
       <c r="C247">
         <v>7</v>
       </c>
@@ -4818,8 +4818,8 @@
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A248" s="21"/>
-      <c r="B248" s="24"/>
+      <c r="A248" s="23"/>
+      <c r="B248" s="26"/>
       <c r="C248">
         <v>8</v>
       </c>
@@ -4834,8 +4834,8 @@
       </c>
     </row>
     <row r="249" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A249" s="21"/>
-      <c r="B249" s="24"/>
+      <c r="A249" s="23"/>
+      <c r="B249" s="26"/>
       <c r="C249">
         <v>9</v>
       </c>
@@ -4849,18 +4849,18 @@
         <v>174</v>
       </c>
       <c r="G249" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H249" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I249" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="21"/>
-      <c r="B250" s="25"/>
+      <c r="A250" s="23"/>
+      <c r="B250" s="27"/>
       <c r="C250">
         <v>10</v>
       </c>
@@ -4887,8 +4887,8 @@
       </c>
     </row>
     <row r="251" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="21"/>
-      <c r="B251" s="23" t="s">
+      <c r="A251" s="23"/>
+      <c r="B251" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C251" s="12">
@@ -4903,8 +4903,8 @@
       <c r="F251" s="3"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A252" s="21"/>
-      <c r="B252" s="24"/>
+      <c r="A252" s="23"/>
+      <c r="B252" s="26"/>
       <c r="C252">
         <v>2</v>
       </c>
@@ -4919,8 +4919,8 @@
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A253" s="21"/>
-      <c r="B253" s="24"/>
+      <c r="A253" s="23"/>
+      <c r="B253" s="26"/>
       <c r="C253">
         <v>3</v>
       </c>
@@ -4935,8 +4935,8 @@
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A254" s="21"/>
-      <c r="B254" s="24"/>
+      <c r="A254" s="23"/>
+      <c r="B254" s="26"/>
       <c r="C254">
         <v>4</v>
       </c>
@@ -4951,8 +4951,8 @@
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A255" s="21"/>
-      <c r="B255" s="24"/>
+      <c r="A255" s="23"/>
+      <c r="B255" s="26"/>
       <c r="C255">
         <v>5</v>
       </c>
@@ -4967,8 +4967,8 @@
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A256" s="21"/>
-      <c r="B256" s="24"/>
+      <c r="A256" s="23"/>
+      <c r="B256" s="26"/>
       <c r="C256">
         <v>6</v>
       </c>
@@ -4983,8 +4983,8 @@
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A257" s="21"/>
-      <c r="B257" s="24"/>
+      <c r="A257" s="23"/>
+      <c r="B257" s="26"/>
       <c r="C257">
         <v>7</v>
       </c>
@@ -4999,8 +4999,8 @@
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A258" s="21"/>
-      <c r="B258" s="24"/>
+      <c r="A258" s="23"/>
+      <c r="B258" s="26"/>
       <c r="C258">
         <v>8</v>
       </c>
@@ -5015,8 +5015,8 @@
       </c>
     </row>
     <row r="259" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A259" s="21"/>
-      <c r="B259" s="24"/>
+      <c r="A259" s="23"/>
+      <c r="B259" s="26"/>
       <c r="C259">
         <v>9</v>
       </c>
@@ -5030,18 +5030,18 @@
         <v>129</v>
       </c>
       <c r="G259" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H259" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I259" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="22"/>
-      <c r="B260" s="25"/>
+      <c r="A260" s="24"/>
+      <c r="B260" s="27"/>
       <c r="C260" s="13">
         <v>10</v>
       </c>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="268" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="269" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="20" t="s">
+      <c r="A269" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B269" s="23" t="s">
+      <c r="B269" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C269" s="12">
@@ -5087,8 +5087,8 @@
       <c r="F269" s="3"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A270" s="21"/>
-      <c r="B270" s="24"/>
+      <c r="A270" s="23"/>
+      <c r="B270" s="26"/>
       <c r="C270">
         <v>2</v>
       </c>
@@ -5103,8 +5103,8 @@
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A271" s="21"/>
-      <c r="B271" s="24"/>
+      <c r="A271" s="23"/>
+      <c r="B271" s="26"/>
       <c r="C271">
         <v>3</v>
       </c>
@@ -5119,8 +5119,8 @@
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A272" s="21"/>
-      <c r="B272" s="24"/>
+      <c r="A272" s="23"/>
+      <c r="B272" s="26"/>
       <c r="C272">
         <v>4</v>
       </c>
@@ -5135,8 +5135,8 @@
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A273" s="21"/>
-      <c r="B273" s="24"/>
+      <c r="A273" s="23"/>
+      <c r="B273" s="26"/>
       <c r="C273">
         <v>5</v>
       </c>
@@ -5151,8 +5151,8 @@
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A274" s="21"/>
-      <c r="B274" s="24"/>
+      <c r="A274" s="23"/>
+      <c r="B274" s="26"/>
       <c r="C274">
         <v>6</v>
       </c>
@@ -5167,8 +5167,8 @@
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A275" s="21"/>
-      <c r="B275" s="24"/>
+      <c r="A275" s="23"/>
+      <c r="B275" s="26"/>
       <c r="C275">
         <v>7</v>
       </c>
@@ -5183,8 +5183,8 @@
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A276" s="21"/>
-      <c r="B276" s="24"/>
+      <c r="A276" s="23"/>
+      <c r="B276" s="26"/>
       <c r="C276">
         <v>8</v>
       </c>
@@ -5199,8 +5199,8 @@
       </c>
     </row>
     <row r="277" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A277" s="21"/>
-      <c r="B277" s="24"/>
+      <c r="A277" s="23"/>
+      <c r="B277" s="26"/>
       <c r="C277">
         <v>9</v>
       </c>
@@ -5214,18 +5214,18 @@
         <v>85</v>
       </c>
       <c r="G277" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H277" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I277" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A278" s="21"/>
-      <c r="B278" s="25"/>
+      <c r="A278" s="23"/>
+      <c r="B278" s="27"/>
       <c r="C278">
         <v>10</v>
       </c>
@@ -5252,8 +5252,8 @@
       </c>
     </row>
     <row r="279" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="21"/>
-      <c r="B279" s="23" t="s">
+      <c r="A279" s="23"/>
+      <c r="B279" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C279" s="12">
@@ -5268,8 +5268,8 @@
       <c r="F279" s="3"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A280" s="21"/>
-      <c r="B280" s="24"/>
+      <c r="A280" s="23"/>
+      <c r="B280" s="26"/>
       <c r="C280">
         <v>2</v>
       </c>
@@ -5284,8 +5284,8 @@
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A281" s="21"/>
-      <c r="B281" s="24"/>
+      <c r="A281" s="23"/>
+      <c r="B281" s="26"/>
       <c r="C281">
         <v>3</v>
       </c>
@@ -5300,8 +5300,8 @@
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A282" s="21"/>
-      <c r="B282" s="24"/>
+      <c r="A282" s="23"/>
+      <c r="B282" s="26"/>
       <c r="C282">
         <v>4</v>
       </c>
@@ -5316,8 +5316,8 @@
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A283" s="21"/>
-      <c r="B283" s="24"/>
+      <c r="A283" s="23"/>
+      <c r="B283" s="26"/>
       <c r="C283">
         <v>5</v>
       </c>
@@ -5332,8 +5332,8 @@
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A284" s="21"/>
-      <c r="B284" s="24"/>
+      <c r="A284" s="23"/>
+      <c r="B284" s="26"/>
       <c r="C284">
         <v>6</v>
       </c>
@@ -5348,8 +5348,8 @@
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A285" s="21"/>
-      <c r="B285" s="24"/>
+      <c r="A285" s="23"/>
+      <c r="B285" s="26"/>
       <c r="C285">
         <v>7</v>
       </c>
@@ -5364,8 +5364,8 @@
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A286" s="21"/>
-      <c r="B286" s="24"/>
+      <c r="A286" s="23"/>
+      <c r="B286" s="26"/>
       <c r="C286">
         <v>8</v>
       </c>
@@ -5380,8 +5380,8 @@
       </c>
     </row>
     <row r="287" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A287" s="21"/>
-      <c r="B287" s="24"/>
+      <c r="A287" s="23"/>
+      <c r="B287" s="26"/>
       <c r="C287">
         <v>9</v>
       </c>
@@ -5395,18 +5395,18 @@
         <v>83</v>
       </c>
       <c r="G287" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H287" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I287" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A288" s="21"/>
-      <c r="B288" s="25"/>
+      <c r="A288" s="23"/>
+      <c r="B288" s="27"/>
       <c r="C288">
         <v>10</v>
       </c>
@@ -5433,8 +5433,8 @@
       </c>
     </row>
     <row r="289" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="21"/>
-      <c r="B289" s="23" t="s">
+      <c r="A289" s="23"/>
+      <c r="B289" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C289" s="12">
@@ -5449,8 +5449,8 @@
       <c r="F289" s="3"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A290" s="21"/>
-      <c r="B290" s="24"/>
+      <c r="A290" s="23"/>
+      <c r="B290" s="26"/>
       <c r="C290">
         <v>2</v>
       </c>
@@ -5465,8 +5465,8 @@
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A291" s="21"/>
-      <c r="B291" s="24"/>
+      <c r="A291" s="23"/>
+      <c r="B291" s="26"/>
       <c r="C291">
         <v>3</v>
       </c>
@@ -5481,8 +5481,8 @@
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A292" s="21"/>
-      <c r="B292" s="24"/>
+      <c r="A292" s="23"/>
+      <c r="B292" s="26"/>
       <c r="C292">
         <v>4</v>
       </c>
@@ -5497,8 +5497,8 @@
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A293" s="21"/>
-      <c r="B293" s="24"/>
+      <c r="A293" s="23"/>
+      <c r="B293" s="26"/>
       <c r="C293">
         <v>5</v>
       </c>
@@ -5513,8 +5513,8 @@
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A294" s="21"/>
-      <c r="B294" s="24"/>
+      <c r="A294" s="23"/>
+      <c r="B294" s="26"/>
       <c r="C294">
         <v>6</v>
       </c>
@@ -5529,8 +5529,8 @@
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A295" s="21"/>
-      <c r="B295" s="24"/>
+      <c r="A295" s="23"/>
+      <c r="B295" s="26"/>
       <c r="C295">
         <v>7</v>
       </c>
@@ -5545,8 +5545,8 @@
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A296" s="21"/>
-      <c r="B296" s="24"/>
+      <c r="A296" s="23"/>
+      <c r="B296" s="26"/>
       <c r="C296">
         <v>8</v>
       </c>
@@ -5561,8 +5561,8 @@
       </c>
     </row>
     <row r="297" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A297" s="21"/>
-      <c r="B297" s="24"/>
+      <c r="A297" s="23"/>
+      <c r="B297" s="26"/>
       <c r="C297">
         <v>9</v>
       </c>
@@ -5576,18 +5576,18 @@
         <v>91</v>
       </c>
       <c r="G297" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H297" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I297" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A298" s="21"/>
-      <c r="B298" s="25"/>
+      <c r="A298" s="23"/>
+      <c r="B298" s="27"/>
       <c r="C298">
         <v>10</v>
       </c>
@@ -5614,170 +5614,170 @@
       </c>
     </row>
     <row r="299" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A299" s="21"/>
-      <c r="B299" s="23" t="s">
+      <c r="A299" s="23"/>
+      <c r="B299" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C299" s="2">
         <v>1</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A300" s="21"/>
-      <c r="B300" s="24"/>
+      <c r="A300" s="23"/>
+      <c r="B300" s="26"/>
       <c r="C300">
         <v>2</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F300" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="21"/>
-      <c r="B301" s="24"/>
+      <c r="A301" s="23"/>
+      <c r="B301" s="26"/>
       <c r="C301">
         <v>3</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F301" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A302" s="21"/>
-      <c r="B302" s="24"/>
+      <c r="A302" s="23"/>
+      <c r="B302" s="26"/>
       <c r="C302">
         <v>4</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F302" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A303" s="21"/>
-      <c r="B303" s="24"/>
+      <c r="A303" s="23"/>
+      <c r="B303" s="26"/>
       <c r="C303">
         <v>5</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F303" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A304" s="21"/>
-      <c r="B304" s="24"/>
+      <c r="A304" s="23"/>
+      <c r="B304" s="26"/>
       <c r="C304">
         <v>6</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A305" s="21"/>
-      <c r="B305" s="24"/>
+      <c r="A305" s="23"/>
+      <c r="B305" s="26"/>
       <c r="C305">
         <v>7</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A306" s="21"/>
-      <c r="B306" s="24"/>
+      <c r="A306" s="23"/>
+      <c r="B306" s="26"/>
       <c r="C306">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F306" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A307" s="21"/>
-      <c r="B307" s="24"/>
+      <c r="A307" s="23"/>
+      <c r="B307" s="26"/>
       <c r="C307">
         <v>9</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A308" s="21"/>
-      <c r="B308" s="25"/>
+      <c r="A308" s="23"/>
+      <c r="B308" s="27"/>
       <c r="C308" s="5">
         <v>10</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F308" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="21"/>
-      <c r="B309" s="23" t="s">
+      <c r="A309" s="23"/>
+      <c r="B309" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C309" s="12">
@@ -5792,8 +5792,8 @@
       <c r="F309" s="3"/>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A310" s="21"/>
-      <c r="B310" s="24"/>
+      <c r="A310" s="23"/>
+      <c r="B310" s="26"/>
       <c r="C310">
         <v>2</v>
       </c>
@@ -5808,8 +5808,8 @@
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A311" s="21"/>
-      <c r="B311" s="24"/>
+      <c r="A311" s="23"/>
+      <c r="B311" s="26"/>
       <c r="C311">
         <v>3</v>
       </c>
@@ -5824,8 +5824,8 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A312" s="21"/>
-      <c r="B312" s="24"/>
+      <c r="A312" s="23"/>
+      <c r="B312" s="26"/>
       <c r="C312">
         <v>4</v>
       </c>
@@ -5840,8 +5840,8 @@
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A313" s="21"/>
-      <c r="B313" s="24"/>
+      <c r="A313" s="23"/>
+      <c r="B313" s="26"/>
       <c r="C313">
         <v>5</v>
       </c>
@@ -5856,8 +5856,8 @@
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A314" s="21"/>
-      <c r="B314" s="24"/>
+      <c r="A314" s="23"/>
+      <c r="B314" s="26"/>
       <c r="C314">
         <v>6</v>
       </c>
@@ -5872,8 +5872,8 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A315" s="21"/>
-      <c r="B315" s="24"/>
+      <c r="A315" s="23"/>
+      <c r="B315" s="26"/>
       <c r="C315">
         <v>7</v>
       </c>
@@ -5888,8 +5888,8 @@
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A316" s="21"/>
-      <c r="B316" s="24"/>
+      <c r="A316" s="23"/>
+      <c r="B316" s="26"/>
       <c r="C316">
         <v>8</v>
       </c>
@@ -5904,8 +5904,8 @@
       </c>
     </row>
     <row r="317" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A317" s="21"/>
-      <c r="B317" s="24"/>
+      <c r="A317" s="23"/>
+      <c r="B317" s="26"/>
       <c r="C317">
         <v>9</v>
       </c>
@@ -5919,18 +5919,18 @@
         <v>93</v>
       </c>
       <c r="G317" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H317" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I317" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A318" s="21"/>
-      <c r="B318" s="25"/>
+      <c r="A318" s="23"/>
+      <c r="B318" s="27"/>
       <c r="C318">
         <v>10</v>
       </c>
@@ -5957,8 +5957,8 @@
       </c>
     </row>
     <row r="319" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A319" s="21"/>
-      <c r="B319" s="23" t="s">
+      <c r="A319" s="23"/>
+      <c r="B319" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C319" s="12">
@@ -5973,8 +5973,8 @@
       <c r="F319" s="3"/>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A320" s="21"/>
-      <c r="B320" s="24"/>
+      <c r="A320" s="23"/>
+      <c r="B320" s="26"/>
       <c r="C320">
         <v>2</v>
       </c>
@@ -5989,8 +5989,8 @@
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A321" s="21"/>
-      <c r="B321" s="24"/>
+      <c r="A321" s="23"/>
+      <c r="B321" s="26"/>
       <c r="C321">
         <v>3</v>
       </c>
@@ -6005,8 +6005,8 @@
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A322" s="21"/>
-      <c r="B322" s="24"/>
+      <c r="A322" s="23"/>
+      <c r="B322" s="26"/>
       <c r="C322">
         <v>4</v>
       </c>
@@ -6021,8 +6021,8 @@
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A323" s="21"/>
-      <c r="B323" s="24"/>
+      <c r="A323" s="23"/>
+      <c r="B323" s="26"/>
       <c r="C323">
         <v>5</v>
       </c>
@@ -6037,8 +6037,8 @@
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A324" s="21"/>
-      <c r="B324" s="24"/>
+      <c r="A324" s="23"/>
+      <c r="B324" s="26"/>
       <c r="C324">
         <v>6</v>
       </c>
@@ -6053,8 +6053,8 @@
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A325" s="21"/>
-      <c r="B325" s="24"/>
+      <c r="A325" s="23"/>
+      <c r="B325" s="26"/>
       <c r="C325">
         <v>7</v>
       </c>
@@ -6069,8 +6069,8 @@
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A326" s="21"/>
-      <c r="B326" s="24"/>
+      <c r="A326" s="23"/>
+      <c r="B326" s="26"/>
       <c r="C326">
         <v>8</v>
       </c>
@@ -6085,8 +6085,8 @@
       </c>
     </row>
     <row r="327" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A327" s="21"/>
-      <c r="B327" s="24"/>
+      <c r="A327" s="23"/>
+      <c r="B327" s="26"/>
       <c r="C327">
         <v>9</v>
       </c>
@@ -6100,18 +6100,18 @@
         <v>40</v>
       </c>
       <c r="G327" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H327" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I327" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A328" s="22"/>
-      <c r="B328" s="25"/>
+      <c r="A328" s="24"/>
+      <c r="B328" s="27"/>
       <c r="C328" s="13">
         <v>10</v>
       </c>
@@ -6139,10 +6139,10 @@
     </row>
     <row r="335" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="336" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A336" s="20" t="s">
+      <c r="A336" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B336" s="23" t="s">
+      <c r="B336" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C336" s="12">
@@ -6157,8 +6157,8 @@
       <c r="F336" s="3"/>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A337" s="21"/>
-      <c r="B337" s="24"/>
+      <c r="A337" s="23"/>
+      <c r="B337" s="26"/>
       <c r="C337">
         <v>2</v>
       </c>
@@ -6173,8 +6173,8 @@
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A338" s="21"/>
-      <c r="B338" s="24"/>
+      <c r="A338" s="23"/>
+      <c r="B338" s="26"/>
       <c r="C338">
         <v>3</v>
       </c>
@@ -6189,8 +6189,8 @@
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A339" s="21"/>
-      <c r="B339" s="24"/>
+      <c r="A339" s="23"/>
+      <c r="B339" s="26"/>
       <c r="C339">
         <v>4</v>
       </c>
@@ -6205,8 +6205,8 @@
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A340" s="21"/>
-      <c r="B340" s="24"/>
+      <c r="A340" s="23"/>
+      <c r="B340" s="26"/>
       <c r="C340">
         <v>5</v>
       </c>
@@ -6221,8 +6221,8 @@
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A341" s="21"/>
-      <c r="B341" s="24"/>
+      <c r="A341" s="23"/>
+      <c r="B341" s="26"/>
       <c r="C341">
         <v>6</v>
       </c>
@@ -6237,8 +6237,8 @@
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A342" s="21"/>
-      <c r="B342" s="24"/>
+      <c r="A342" s="23"/>
+      <c r="B342" s="26"/>
       <c r="C342">
         <v>7</v>
       </c>
@@ -6253,8 +6253,8 @@
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A343" s="21"/>
-      <c r="B343" s="24"/>
+      <c r="A343" s="23"/>
+      <c r="B343" s="26"/>
       <c r="C343">
         <v>8</v>
       </c>
@@ -6269,8 +6269,8 @@
       </c>
     </row>
     <row r="344" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A344" s="21"/>
-      <c r="B344" s="24"/>
+      <c r="A344" s="23"/>
+      <c r="B344" s="26"/>
       <c r="C344">
         <v>9</v>
       </c>
@@ -6284,18 +6284,18 @@
         <v>64</v>
       </c>
       <c r="G344" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H344" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I344" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A345" s="21"/>
-      <c r="B345" s="25"/>
+      <c r="A345" s="23"/>
+      <c r="B345" s="27"/>
       <c r="C345">
         <v>10</v>
       </c>
@@ -6322,8 +6322,8 @@
       </c>
     </row>
     <row r="346" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="21"/>
-      <c r="B346" s="23" t="s">
+      <c r="A346" s="23"/>
+      <c r="B346" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C346" s="12">
@@ -6338,8 +6338,8 @@
       <c r="F346" s="3"/>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A347" s="21"/>
-      <c r="B347" s="24"/>
+      <c r="A347" s="23"/>
+      <c r="B347" s="26"/>
       <c r="C347">
         <v>2</v>
       </c>
@@ -6354,8 +6354,8 @@
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A348" s="21"/>
-      <c r="B348" s="24"/>
+      <c r="A348" s="23"/>
+      <c r="B348" s="26"/>
       <c r="C348">
         <v>3</v>
       </c>
@@ -6370,8 +6370,8 @@
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A349" s="21"/>
-      <c r="B349" s="24"/>
+      <c r="A349" s="23"/>
+      <c r="B349" s="26"/>
       <c r="C349">
         <v>4</v>
       </c>
@@ -6386,8 +6386,8 @@
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A350" s="21"/>
-      <c r="B350" s="24"/>
+      <c r="A350" s="23"/>
+      <c r="B350" s="26"/>
       <c r="C350">
         <v>5</v>
       </c>
@@ -6402,8 +6402,8 @@
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A351" s="21"/>
-      <c r="B351" s="24"/>
+      <c r="A351" s="23"/>
+      <c r="B351" s="26"/>
       <c r="C351">
         <v>6</v>
       </c>
@@ -6418,8 +6418,8 @@
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A352" s="21"/>
-      <c r="B352" s="24"/>
+      <c r="A352" s="23"/>
+      <c r="B352" s="26"/>
       <c r="C352">
         <v>7</v>
       </c>
@@ -6434,8 +6434,8 @@
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A353" s="21"/>
-      <c r="B353" s="24"/>
+      <c r="A353" s="23"/>
+      <c r="B353" s="26"/>
       <c r="C353">
         <v>8</v>
       </c>
@@ -6450,8 +6450,8 @@
       </c>
     </row>
     <row r="354" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A354" s="21"/>
-      <c r="B354" s="24"/>
+      <c r="A354" s="23"/>
+      <c r="B354" s="26"/>
       <c r="C354">
         <v>9</v>
       </c>
@@ -6465,18 +6465,18 @@
         <v>69</v>
       </c>
       <c r="G354" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H354" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I354" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A355" s="21"/>
-      <c r="B355" s="25"/>
+      <c r="A355" s="23"/>
+      <c r="B355" s="27"/>
       <c r="C355">
         <v>10</v>
       </c>
@@ -6503,335 +6503,335 @@
       </c>
     </row>
     <row r="356" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A356" s="21"/>
-      <c r="B356" s="23" t="s">
+      <c r="A356" s="23"/>
+      <c r="B356" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C356" s="12">
         <v>1</v>
       </c>
       <c r="D356" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E356" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F356" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A357" s="21"/>
-      <c r="B357" s="24"/>
+      <c r="A357" s="23"/>
+      <c r="B357" s="26"/>
       <c r="C357">
         <v>2</v>
       </c>
       <c r="D357" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E357" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F357" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A358" s="21"/>
-      <c r="B358" s="24"/>
+      <c r="A358" s="23"/>
+      <c r="B358" s="26"/>
       <c r="C358">
         <v>3</v>
       </c>
       <c r="D358" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E358" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F358" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A359" s="21"/>
-      <c r="B359" s="24"/>
+      <c r="A359" s="23"/>
+      <c r="B359" s="26"/>
       <c r="C359">
         <v>4</v>
       </c>
       <c r="D359" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E359" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F359" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A360" s="21"/>
-      <c r="B360" s="24"/>
+      <c r="A360" s="23"/>
+      <c r="B360" s="26"/>
       <c r="C360">
         <v>5</v>
       </c>
       <c r="D360" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E360" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F360" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A361" s="21"/>
-      <c r="B361" s="24"/>
+      <c r="A361" s="23"/>
+      <c r="B361" s="26"/>
       <c r="C361">
         <v>6</v>
       </c>
       <c r="D361" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E361" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F361" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A362" s="21"/>
-      <c r="B362" s="24"/>
+      <c r="A362" s="23"/>
+      <c r="B362" s="26"/>
       <c r="C362">
         <v>7</v>
       </c>
       <c r="D362" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E362" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F362" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A363" s="21"/>
-      <c r="B363" s="24"/>
+      <c r="A363" s="23"/>
+      <c r="B363" s="26"/>
       <c r="C363">
         <v>8</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E363" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F363" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="364" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A364" s="21"/>
-      <c r="B364" s="24"/>
+      <c r="A364" s="23"/>
+      <c r="B364" s="26"/>
       <c r="C364">
         <v>9</v>
       </c>
       <c r="D364" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E364" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F364" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G364" s="10"/>
       <c r="H364" s="10"/>
       <c r="I364" s="10"/>
     </row>
     <row r="365" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A365" s="21"/>
-      <c r="B365" s="25"/>
+      <c r="A365" s="23"/>
+      <c r="B365" s="27"/>
       <c r="C365">
         <v>10</v>
       </c>
       <c r="D365" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E365" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F365" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A366" s="21"/>
-      <c r="B366" s="23" t="s">
+      <c r="A366" s="23"/>
+      <c r="B366" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C366" s="2">
         <v>1</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F366" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="367" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A367" s="21"/>
-      <c r="B367" s="24"/>
+      <c r="A367" s="23"/>
+      <c r="B367" s="26"/>
       <c r="C367">
         <v>2</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F367" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A368" s="21"/>
-      <c r="B368" s="24"/>
+      <c r="A368" s="23"/>
+      <c r="B368" s="26"/>
       <c r="C368">
         <v>3</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F368" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A369" s="21"/>
-      <c r="B369" s="24"/>
+      <c r="A369" s="23"/>
+      <c r="B369" s="26"/>
       <c r="C369">
         <v>4</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F369" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A370" s="21"/>
-      <c r="B370" s="24"/>
+      <c r="A370" s="23"/>
+      <c r="B370" s="26"/>
       <c r="C370">
         <v>5</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F370" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A371" s="21"/>
-      <c r="B371" s="24"/>
+      <c r="A371" s="23"/>
+      <c r="B371" s="26"/>
       <c r="C371">
         <v>6</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F371" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A372" s="21"/>
-      <c r="B372" s="24"/>
+      <c r="A372" s="23"/>
+      <c r="B372" s="26"/>
       <c r="C372">
         <v>7</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F372" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A373" s="21"/>
-      <c r="B373" s="24"/>
+      <c r="A373" s="23"/>
+      <c r="B373" s="26"/>
       <c r="C373">
         <v>8</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F373" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A374" s="21"/>
-      <c r="B374" s="24"/>
+      <c r="A374" s="23"/>
+      <c r="B374" s="26"/>
       <c r="C374">
         <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F374" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A375" s="21"/>
-      <c r="B375" s="25"/>
+      <c r="A375" s="23"/>
+      <c r="B375" s="27"/>
       <c r="C375" s="5">
         <v>10</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F375" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A376" s="21"/>
-      <c r="B376" s="23" t="s">
+      <c r="A376" s="23"/>
+      <c r="B376" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C376" s="12">
@@ -6846,8 +6846,8 @@
       <c r="F376" s="3"/>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A377" s="21"/>
-      <c r="B377" s="24"/>
+      <c r="A377" s="23"/>
+      <c r="B377" s="26"/>
       <c r="C377">
         <v>2</v>
       </c>
@@ -6862,8 +6862,8 @@
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A378" s="21"/>
-      <c r="B378" s="24"/>
+      <c r="A378" s="23"/>
+      <c r="B378" s="26"/>
       <c r="C378">
         <v>3</v>
       </c>
@@ -6878,8 +6878,8 @@
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A379" s="21"/>
-      <c r="B379" s="24"/>
+      <c r="A379" s="23"/>
+      <c r="B379" s="26"/>
       <c r="C379">
         <v>4</v>
       </c>
@@ -6894,8 +6894,8 @@
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A380" s="21"/>
-      <c r="B380" s="24"/>
+      <c r="A380" s="23"/>
+      <c r="B380" s="26"/>
       <c r="C380">
         <v>5</v>
       </c>
@@ -6910,8 +6910,8 @@
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A381" s="21"/>
-      <c r="B381" s="24"/>
+      <c r="A381" s="23"/>
+      <c r="B381" s="26"/>
       <c r="C381">
         <v>6</v>
       </c>
@@ -6926,8 +6926,8 @@
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A382" s="21"/>
-      <c r="B382" s="24"/>
+      <c r="A382" s="23"/>
+      <c r="B382" s="26"/>
       <c r="C382">
         <v>7</v>
       </c>
@@ -6942,8 +6942,8 @@
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A383" s="21"/>
-      <c r="B383" s="24"/>
+      <c r="A383" s="23"/>
+      <c r="B383" s="26"/>
       <c r="C383">
         <v>8</v>
       </c>
@@ -6958,8 +6958,8 @@
       </c>
     </row>
     <row r="384" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A384" s="21"/>
-      <c r="B384" s="24"/>
+      <c r="A384" s="23"/>
+      <c r="B384" s="26"/>
       <c r="C384">
         <v>9</v>
       </c>
@@ -6973,18 +6973,18 @@
         <v>100</v>
       </c>
       <c r="G384" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H384" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I384" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A385" s="21"/>
-      <c r="B385" s="25"/>
+      <c r="A385" s="23"/>
+      <c r="B385" s="27"/>
       <c r="C385">
         <v>10</v>
       </c>
@@ -7011,8 +7011,8 @@
       </c>
     </row>
     <row r="386" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A386" s="21"/>
-      <c r="B386" s="23" t="s">
+      <c r="A386" s="23"/>
+      <c r="B386" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C386" s="12">
@@ -7027,8 +7027,8 @@
       <c r="F386" s="3"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A387" s="21"/>
-      <c r="B387" s="24"/>
+      <c r="A387" s="23"/>
+      <c r="B387" s="26"/>
       <c r="C387">
         <v>2</v>
       </c>
@@ -7043,8 +7043,8 @@
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A388" s="21"/>
-      <c r="B388" s="24"/>
+      <c r="A388" s="23"/>
+      <c r="B388" s="26"/>
       <c r="C388">
         <v>3</v>
       </c>
@@ -7059,8 +7059,8 @@
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A389" s="21"/>
-      <c r="B389" s="24"/>
+      <c r="A389" s="23"/>
+      <c r="B389" s="26"/>
       <c r="C389">
         <v>4</v>
       </c>
@@ -7075,8 +7075,8 @@
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A390" s="21"/>
-      <c r="B390" s="24"/>
+      <c r="A390" s="23"/>
+      <c r="B390" s="26"/>
       <c r="C390">
         <v>5</v>
       </c>
@@ -7091,8 +7091,8 @@
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A391" s="21"/>
-      <c r="B391" s="24"/>
+      <c r="A391" s="23"/>
+      <c r="B391" s="26"/>
       <c r="C391">
         <v>6</v>
       </c>
@@ -7107,8 +7107,8 @@
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A392" s="21"/>
-      <c r="B392" s="24"/>
+      <c r="A392" s="23"/>
+      <c r="B392" s="26"/>
       <c r="C392">
         <v>7</v>
       </c>
@@ -7123,8 +7123,8 @@
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A393" s="21"/>
-      <c r="B393" s="24"/>
+      <c r="A393" s="23"/>
+      <c r="B393" s="26"/>
       <c r="C393">
         <v>8</v>
       </c>
@@ -7139,8 +7139,8 @@
       </c>
     </row>
     <row r="394" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A394" s="21"/>
-      <c r="B394" s="24"/>
+      <c r="A394" s="23"/>
+      <c r="B394" s="26"/>
       <c r="C394">
         <v>9</v>
       </c>
@@ -7154,18 +7154,18 @@
         <v>52</v>
       </c>
       <c r="G394" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H394" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I394" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A395" s="22"/>
-      <c r="B395" s="25"/>
+      <c r="A395" s="24"/>
+      <c r="B395" s="27"/>
       <c r="C395" s="13">
         <v>10</v>
       </c>
@@ -7193,10 +7193,10 @@
     </row>
     <row r="402" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="403" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A403" s="20" t="s">
+      <c r="A403" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B403" s="23" t="s">
+      <c r="B403" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C403" s="12">
@@ -7211,8 +7211,8 @@
       <c r="F403" s="3"/>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A404" s="21"/>
-      <c r="B404" s="24"/>
+      <c r="A404" s="23"/>
+      <c r="B404" s="26"/>
       <c r="C404">
         <v>2</v>
       </c>
@@ -7227,8 +7227,8 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A405" s="21"/>
-      <c r="B405" s="24"/>
+      <c r="A405" s="23"/>
+      <c r="B405" s="26"/>
       <c r="C405">
         <v>3</v>
       </c>
@@ -7243,8 +7243,8 @@
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A406" s="21"/>
-      <c r="B406" s="24"/>
+      <c r="A406" s="23"/>
+      <c r="B406" s="26"/>
       <c r="C406">
         <v>4</v>
       </c>
@@ -7259,8 +7259,8 @@
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A407" s="21"/>
-      <c r="B407" s="24"/>
+      <c r="A407" s="23"/>
+      <c r="B407" s="26"/>
       <c r="C407">
         <v>5</v>
       </c>
@@ -7275,8 +7275,8 @@
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A408" s="21"/>
-      <c r="B408" s="24"/>
+      <c r="A408" s="23"/>
+      <c r="B408" s="26"/>
       <c r="C408">
         <v>6</v>
       </c>
@@ -7291,8 +7291,8 @@
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A409" s="21"/>
-      <c r="B409" s="24"/>
+      <c r="A409" s="23"/>
+      <c r="B409" s="26"/>
       <c r="C409">
         <v>7</v>
       </c>
@@ -7307,8 +7307,8 @@
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A410" s="21"/>
-      <c r="B410" s="24"/>
+      <c r="A410" s="23"/>
+      <c r="B410" s="26"/>
       <c r="C410">
         <v>8</v>
       </c>
@@ -7323,8 +7323,8 @@
       </c>
     </row>
     <row r="411" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A411" s="21"/>
-      <c r="B411" s="24"/>
+      <c r="A411" s="23"/>
+      <c r="B411" s="26"/>
       <c r="C411">
         <v>9</v>
       </c>
@@ -7338,18 +7338,18 @@
         <v>143</v>
       </c>
       <c r="G411" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H411" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I411" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A412" s="21"/>
-      <c r="B412" s="25"/>
+      <c r="A412" s="23"/>
+      <c r="B412" s="27"/>
       <c r="C412">
         <v>10</v>
       </c>
@@ -7376,8 +7376,8 @@
       </c>
     </row>
     <row r="413" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A413" s="21"/>
-      <c r="B413" s="23" t="s">
+      <c r="A413" s="23"/>
+      <c r="B413" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C413" s="12">
@@ -7392,8 +7392,8 @@
       <c r="F413" s="3"/>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A414" s="21"/>
-      <c r="B414" s="24"/>
+      <c r="A414" s="23"/>
+      <c r="B414" s="26"/>
       <c r="C414">
         <v>2</v>
       </c>
@@ -7408,8 +7408,8 @@
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A415" s="21"/>
-      <c r="B415" s="24"/>
+      <c r="A415" s="23"/>
+      <c r="B415" s="26"/>
       <c r="C415">
         <v>3</v>
       </c>
@@ -7424,8 +7424,8 @@
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A416" s="21"/>
-      <c r="B416" s="24"/>
+      <c r="A416" s="23"/>
+      <c r="B416" s="26"/>
       <c r="C416">
         <v>4</v>
       </c>
@@ -7440,8 +7440,8 @@
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A417" s="21"/>
-      <c r="B417" s="24"/>
+      <c r="A417" s="23"/>
+      <c r="B417" s="26"/>
       <c r="C417">
         <v>5</v>
       </c>
@@ -7456,8 +7456,8 @@
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A418" s="21"/>
-      <c r="B418" s="24"/>
+      <c r="A418" s="23"/>
+      <c r="B418" s="26"/>
       <c r="C418">
         <v>6</v>
       </c>
@@ -7472,8 +7472,8 @@
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A419" s="21"/>
-      <c r="B419" s="24"/>
+      <c r="A419" s="23"/>
+      <c r="B419" s="26"/>
       <c r="C419">
         <v>7</v>
       </c>
@@ -7488,8 +7488,8 @@
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A420" s="21"/>
-      <c r="B420" s="24"/>
+      <c r="A420" s="23"/>
+      <c r="B420" s="26"/>
       <c r="C420">
         <v>8</v>
       </c>
@@ -7504,8 +7504,8 @@
       </c>
     </row>
     <row r="421" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A421" s="21"/>
-      <c r="B421" s="24"/>
+      <c r="A421" s="23"/>
+      <c r="B421" s="26"/>
       <c r="C421">
         <v>9</v>
       </c>
@@ -7519,18 +7519,18 @@
         <v>147</v>
       </c>
       <c r="G421" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H421" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I421" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="422" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A422" s="21"/>
-      <c r="B422" s="25"/>
+      <c r="A422" s="23"/>
+      <c r="B422" s="27"/>
       <c r="C422">
         <v>10</v>
       </c>
@@ -7557,8 +7557,8 @@
       </c>
     </row>
     <row r="423" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A423" s="21"/>
-      <c r="B423" s="23" t="s">
+      <c r="A423" s="23"/>
+      <c r="B423" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C423" s="12">
@@ -7573,8 +7573,8 @@
       <c r="F423" s="3"/>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A424" s="21"/>
-      <c r="B424" s="24"/>
+      <c r="A424" s="23"/>
+      <c r="B424" s="26"/>
       <c r="C424">
         <v>2</v>
       </c>
@@ -7589,8 +7589,8 @@
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A425" s="21"/>
-      <c r="B425" s="24"/>
+      <c r="A425" s="23"/>
+      <c r="B425" s="26"/>
       <c r="C425">
         <v>3</v>
       </c>
@@ -7605,8 +7605,8 @@
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A426" s="21"/>
-      <c r="B426" s="24"/>
+      <c r="A426" s="23"/>
+      <c r="B426" s="26"/>
       <c r="C426">
         <v>4</v>
       </c>
@@ -7621,8 +7621,8 @@
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A427" s="21"/>
-      <c r="B427" s="24"/>
+      <c r="A427" s="23"/>
+      <c r="B427" s="26"/>
       <c r="C427">
         <v>5</v>
       </c>
@@ -7637,8 +7637,8 @@
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A428" s="21"/>
-      <c r="B428" s="24"/>
+      <c r="A428" s="23"/>
+      <c r="B428" s="26"/>
       <c r="C428">
         <v>6</v>
       </c>
@@ -7653,8 +7653,8 @@
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A429" s="21"/>
-      <c r="B429" s="24"/>
+      <c r="A429" s="23"/>
+      <c r="B429" s="26"/>
       <c r="C429">
         <v>7</v>
       </c>
@@ -7669,8 +7669,8 @@
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A430" s="21"/>
-      <c r="B430" s="24"/>
+      <c r="A430" s="23"/>
+      <c r="B430" s="26"/>
       <c r="C430">
         <v>8</v>
       </c>
@@ -7685,8 +7685,8 @@
       </c>
     </row>
     <row r="431" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A431" s="21"/>
-      <c r="B431" s="24"/>
+      <c r="A431" s="23"/>
+      <c r="B431" s="26"/>
       <c r="C431">
         <v>9</v>
       </c>
@@ -7700,18 +7700,18 @@
         <v>138</v>
       </c>
       <c r="G431" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H431" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I431" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A432" s="21"/>
-      <c r="B432" s="25"/>
+      <c r="A432" s="23"/>
+      <c r="B432" s="27"/>
       <c r="C432">
         <v>10</v>
       </c>
@@ -7738,8 +7738,8 @@
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A433" s="21"/>
-      <c r="B433" s="23" t="s">
+      <c r="A433" s="23"/>
+      <c r="B433" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C433" s="2">
@@ -7754,8 +7754,8 @@
       <c r="F433" s="3"/>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A434" s="21"/>
-      <c r="B434" s="24"/>
+      <c r="A434" s="23"/>
+      <c r="B434" s="26"/>
       <c r="C434">
         <v>2</v>
       </c>
@@ -7770,8 +7770,8 @@
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A435" s="21"/>
-      <c r="B435" s="24"/>
+      <c r="A435" s="23"/>
+      <c r="B435" s="26"/>
       <c r="C435">
         <v>3</v>
       </c>
@@ -7786,8 +7786,8 @@
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A436" s="21"/>
-      <c r="B436" s="24"/>
+      <c r="A436" s="23"/>
+      <c r="B436" s="26"/>
       <c r="C436">
         <v>4</v>
       </c>
@@ -7802,8 +7802,8 @@
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A437" s="21"/>
-      <c r="B437" s="24"/>
+      <c r="A437" s="23"/>
+      <c r="B437" s="26"/>
       <c r="C437">
         <v>5</v>
       </c>
@@ -7818,8 +7818,8 @@
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A438" s="21"/>
-      <c r="B438" s="24"/>
+      <c r="A438" s="23"/>
+      <c r="B438" s="26"/>
       <c r="C438">
         <v>6</v>
       </c>
@@ -7834,8 +7834,8 @@
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A439" s="21"/>
-      <c r="B439" s="24"/>
+      <c r="A439" s="23"/>
+      <c r="B439" s="26"/>
       <c r="C439">
         <v>7</v>
       </c>
@@ -7850,8 +7850,8 @@
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A440" s="21"/>
-      <c r="B440" s="24"/>
+      <c r="A440" s="23"/>
+      <c r="B440" s="26"/>
       <c r="C440">
         <v>8</v>
       </c>
@@ -7866,8 +7866,8 @@
       </c>
     </row>
     <row r="441" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A441" s="21"/>
-      <c r="B441" s="24"/>
+      <c r="A441" s="23"/>
+      <c r="B441" s="26"/>
       <c r="C441">
         <v>9</v>
       </c>
@@ -7881,18 +7881,18 @@
         <v>149</v>
       </c>
       <c r="G441" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H441" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I441" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="442" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A442" s="21"/>
-      <c r="B442" s="25"/>
+      <c r="A442" s="23"/>
+      <c r="B442" s="27"/>
       <c r="C442" s="5">
         <v>10</v>
       </c>
@@ -7919,8 +7919,8 @@
       </c>
     </row>
     <row r="443" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A443" s="21"/>
-      <c r="B443" s="23" t="s">
+      <c r="A443" s="23"/>
+      <c r="B443" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C443" s="12">
@@ -7935,8 +7935,8 @@
       <c r="F443" s="4"/>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A444" s="21"/>
-      <c r="B444" s="24"/>
+      <c r="A444" s="23"/>
+      <c r="B444" s="26"/>
       <c r="C444">
         <v>2</v>
       </c>
@@ -7951,8 +7951,8 @@
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A445" s="21"/>
-      <c r="B445" s="24"/>
+      <c r="A445" s="23"/>
+      <c r="B445" s="26"/>
       <c r="C445">
         <v>3</v>
       </c>
@@ -7967,8 +7967,8 @@
       </c>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A446" s="21"/>
-      <c r="B446" s="24"/>
+      <c r="A446" s="23"/>
+      <c r="B446" s="26"/>
       <c r="C446">
         <v>4</v>
       </c>
@@ -7983,8 +7983,8 @@
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A447" s="21"/>
-      <c r="B447" s="24"/>
+      <c r="A447" s="23"/>
+      <c r="B447" s="26"/>
       <c r="C447">
         <v>5</v>
       </c>
@@ -7999,8 +7999,8 @@
       </c>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A448" s="21"/>
-      <c r="B448" s="24"/>
+      <c r="A448" s="23"/>
+      <c r="B448" s="26"/>
       <c r="C448">
         <v>6</v>
       </c>
@@ -8015,8 +8015,8 @@
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A449" s="21"/>
-      <c r="B449" s="24"/>
+      <c r="A449" s="23"/>
+      <c r="B449" s="26"/>
       <c r="C449">
         <v>7</v>
       </c>
@@ -8031,8 +8031,8 @@
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A450" s="21"/>
-      <c r="B450" s="24"/>
+      <c r="A450" s="23"/>
+      <c r="B450" s="26"/>
       <c r="C450">
         <v>8</v>
       </c>
@@ -8047,8 +8047,8 @@
       </c>
     </row>
     <row r="451" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A451" s="21"/>
-      <c r="B451" s="24"/>
+      <c r="A451" s="23"/>
+      <c r="B451" s="26"/>
       <c r="C451">
         <v>9</v>
       </c>
@@ -8062,18 +8062,18 @@
         <v>153</v>
       </c>
       <c r="G451" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H451" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I451" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="452" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A452" s="21"/>
-      <c r="B452" s="25"/>
+      <c r="A452" s="23"/>
+      <c r="B452" s="27"/>
       <c r="C452">
         <v>10</v>
       </c>
@@ -8100,8 +8100,8 @@
       </c>
     </row>
     <row r="453" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A453" s="21"/>
-      <c r="B453" s="23" t="s">
+      <c r="A453" s="23"/>
+      <c r="B453" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C453" s="12">
@@ -8116,8 +8116,8 @@
       <c r="F453" s="3"/>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A454" s="21"/>
-      <c r="B454" s="24"/>
+      <c r="A454" s="23"/>
+      <c r="B454" s="26"/>
       <c r="C454">
         <v>2</v>
       </c>
@@ -8132,8 +8132,8 @@
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A455" s="21"/>
-      <c r="B455" s="24"/>
+      <c r="A455" s="23"/>
+      <c r="B455" s="26"/>
       <c r="C455">
         <v>3</v>
       </c>
@@ -8148,8 +8148,8 @@
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A456" s="21"/>
-      <c r="B456" s="24"/>
+      <c r="A456" s="23"/>
+      <c r="B456" s="26"/>
       <c r="C456">
         <v>4</v>
       </c>
@@ -8164,8 +8164,8 @@
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A457" s="21"/>
-      <c r="B457" s="24"/>
+      <c r="A457" s="23"/>
+      <c r="B457" s="26"/>
       <c r="C457">
         <v>5</v>
       </c>
@@ -8180,8 +8180,8 @@
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A458" s="21"/>
-      <c r="B458" s="24"/>
+      <c r="A458" s="23"/>
+      <c r="B458" s="26"/>
       <c r="C458">
         <v>6</v>
       </c>
@@ -8196,8 +8196,8 @@
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A459" s="21"/>
-      <c r="B459" s="24"/>
+      <c r="A459" s="23"/>
+      <c r="B459" s="26"/>
       <c r="C459">
         <v>7</v>
       </c>
@@ -8212,8 +8212,8 @@
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A460" s="21"/>
-      <c r="B460" s="24"/>
+      <c r="A460" s="23"/>
+      <c r="B460" s="26"/>
       <c r="C460">
         <v>8</v>
       </c>
@@ -8228,8 +8228,8 @@
       </c>
     </row>
     <row r="461" spans="1:9" ht="16" x14ac:dyDescent="0.4">
-      <c r="A461" s="21"/>
-      <c r="B461" s="24"/>
+      <c r="A461" s="23"/>
+      <c r="B461" s="26"/>
       <c r="C461">
         <v>9</v>
       </c>
@@ -8243,18 +8243,18 @@
         <v>115</v>
       </c>
       <c r="G461" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H461" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I461" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="462" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A462" s="22"/>
-      <c r="B462" s="25"/>
+      <c r="A462" s="24"/>
+      <c r="B462" s="27"/>
       <c r="C462" s="13">
         <v>10</v>
       </c>
@@ -8282,6 +8282,41 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A403:A462"/>
+    <mergeCell ref="B403:B412"/>
+    <mergeCell ref="B413:B422"/>
+    <mergeCell ref="B423:B432"/>
+    <mergeCell ref="B433:B442"/>
+    <mergeCell ref="B443:B452"/>
+    <mergeCell ref="B453:B462"/>
+    <mergeCell ref="A336:A395"/>
+    <mergeCell ref="B336:B345"/>
+    <mergeCell ref="B346:B355"/>
+    <mergeCell ref="B356:B365"/>
+    <mergeCell ref="B366:B375"/>
+    <mergeCell ref="B376:B385"/>
+    <mergeCell ref="B386:B395"/>
+    <mergeCell ref="A269:A328"/>
+    <mergeCell ref="B269:B278"/>
+    <mergeCell ref="B279:B288"/>
+    <mergeCell ref="B289:B298"/>
+    <mergeCell ref="B299:B308"/>
+    <mergeCell ref="B309:B318"/>
+    <mergeCell ref="B319:B328"/>
+    <mergeCell ref="A201:A260"/>
+    <mergeCell ref="B201:B210"/>
+    <mergeCell ref="B211:B220"/>
+    <mergeCell ref="B221:B230"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="B241:B250"/>
+    <mergeCell ref="B251:B260"/>
+    <mergeCell ref="A133:A192"/>
+    <mergeCell ref="B133:B142"/>
+    <mergeCell ref="B143:B152"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="B163:B172"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="B183:B192"/>
     <mergeCell ref="A2:A61"/>
     <mergeCell ref="A65:A124"/>
     <mergeCell ref="B65:B74"/>
@@ -8296,41 +8331,6 @@
     <mergeCell ref="B32:B41"/>
     <mergeCell ref="B42:B51"/>
     <mergeCell ref="B52:B61"/>
-    <mergeCell ref="A133:A192"/>
-    <mergeCell ref="B133:B142"/>
-    <mergeCell ref="B143:B152"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="B163:B172"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="B183:B192"/>
-    <mergeCell ref="A201:A260"/>
-    <mergeCell ref="B201:B210"/>
-    <mergeCell ref="B211:B220"/>
-    <mergeCell ref="B221:B230"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="B241:B250"/>
-    <mergeCell ref="B251:B260"/>
-    <mergeCell ref="A269:A328"/>
-    <mergeCell ref="B269:B278"/>
-    <mergeCell ref="B279:B288"/>
-    <mergeCell ref="B289:B298"/>
-    <mergeCell ref="B299:B308"/>
-    <mergeCell ref="B309:B318"/>
-    <mergeCell ref="B319:B328"/>
-    <mergeCell ref="A336:A395"/>
-    <mergeCell ref="B336:B345"/>
-    <mergeCell ref="B346:B355"/>
-    <mergeCell ref="B356:B365"/>
-    <mergeCell ref="B366:B375"/>
-    <mergeCell ref="B376:B385"/>
-    <mergeCell ref="B386:B395"/>
-    <mergeCell ref="A403:A462"/>
-    <mergeCell ref="B403:B412"/>
-    <mergeCell ref="B413:B422"/>
-    <mergeCell ref="B423:B432"/>
-    <mergeCell ref="B433:B442"/>
-    <mergeCell ref="B443:B452"/>
-    <mergeCell ref="B453:B462"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
